--- a/StructureDefinition-ChulPatient.xlsx
+++ b/StructureDefinition-ChulPatient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ChulPatient.xlsx
+++ b/StructureDefinition-ChulPatient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ChulPatient.xlsx
+++ b/StructureDefinition-ChulPatient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ChulPatient.xlsx
+++ b/StructureDefinition-ChulPatient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-06-02T10:39:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,6 +440,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -483,7 +493,8 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>id</t>
@@ -535,13 +546,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -695,7 +699,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -724,6 +736,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
@@ -810,6 +826,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -940,6 +960,9 @@
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -1007,6 +1030,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -1095,6 +1122,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -1125,6 +1155,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1152,11 +1185,14 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
   </si>
   <si>
     <t>scoper</t>
@@ -1175,6 +1211,9 @@
   </si>
   <si>
     <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2730,19 +2769,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2754,7 +2793,7 @@
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>130</v>
@@ -2774,10 +2813,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2803,16 +2842,16 @@
         <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2849,19 +2888,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2873,7 +2912,7 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>130</v>
@@ -2893,10 +2932,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2919,17 +2958,17 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -2966,17 +3005,17 @@
         <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2985,22 +3024,22 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>19</v>
@@ -3008,13 +3047,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
@@ -3036,17 +3075,17 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3095,7 +3134,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3104,22 +3143,22 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>19</v>
@@ -3127,10 +3166,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3153,13 +3192,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3210,7 +3249,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3225,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>19</v>
@@ -3242,10 +3281,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3274,7 +3313,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>136</v>
@@ -3315,19 +3354,19 @@
         <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3339,10 +3378,10 @@
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>19</v>
@@ -3359,10 +3398,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3388,16 +3427,16 @@
         <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3422,13 +3461,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3446,7 +3485,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3461,7 +3500,7 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>19</v>
@@ -3478,10 +3517,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3504,19 +3543,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3541,13 +3580,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3565,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3574,13 +3613,13 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>19</v>
@@ -3589,7 +3628,7 @@
         <v>19</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>19</v>
@@ -3597,10 +3636,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3626,16 +3665,16 @@
         <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3645,10 +3684,10 @@
         <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>19</v>
@@ -3684,7 +3723,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3699,7 +3738,7 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>19</v>
@@ -3708,7 +3747,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>19</v>
@@ -3716,10 +3755,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3742,16 +3781,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3765,7 +3804,7 @@
         <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>19</v>
@@ -3801,7 +3840,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3813,10 +3852,10 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>19</v>
@@ -3825,7 +3864,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>19</v>
@@ -3833,10 +3872,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3859,15 +3898,17 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3916,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3925,13 +3966,13 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>19</v>
@@ -3940,7 +3981,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>19</v>
@@ -3948,10 +3989,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3974,16 +4015,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4033,7 +4074,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4042,13 +4083,13 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>19</v>
@@ -4057,7 +4098,7 @@
         <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>19</v>
@@ -4065,10 +4106,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4091,70 +4132,70 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4169,13 +4210,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>19</v>
@@ -4186,10 +4227,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4212,19 +4253,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4273,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4282,22 +4323,22 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>19</v>
@@ -4305,10 +4346,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4331,19 +4372,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4392,7 +4433,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4401,22 +4442,22 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>19</v>
@@ -4424,10 +4465,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4453,16 +4494,16 @@
         <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4487,31 +4528,31 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4526,16 +4567,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>19</v>
@@ -4543,10 +4584,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4569,19 +4610,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4630,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4645,27 +4686,27 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4688,19 +4729,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4749,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4758,22 +4799,22 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -4781,10 +4822,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4807,19 +4848,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4868,7 +4909,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4877,22 +4918,22 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -4900,10 +4941,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4926,17 +4967,19 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4961,31 +5004,31 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4994,22 +5037,22 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5017,10 +5060,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5043,19 +5086,19 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5104,7 +5147,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5113,22 +5156,22 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5136,10 +5179,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5162,19 +5205,19 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5223,7 +5266,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5232,22 +5275,22 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
@@ -5255,10 +5298,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5281,19 +5324,19 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5342,7 +5385,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5351,16 +5394,16 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
@@ -5374,10 +5417,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5400,13 +5443,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5457,7 +5500,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5472,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>19</v>
@@ -5489,10 +5532,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5521,7 +5564,7 @@
         <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>136</v>
@@ -5562,19 +5605,19 @@
         <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5586,10 +5629,10 @@
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>19</v>
@@ -5606,14 +5649,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5635,16 +5678,16 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5693,7 +5736,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5705,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>130</v>
@@ -5725,10 +5768,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5751,17 +5794,19 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5786,13 +5831,13 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
@@ -5810,7 +5855,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5819,22 +5864,22 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -5842,10 +5887,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5868,17 +5913,19 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5927,7 +5974,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5936,22 +5983,22 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -5959,10 +6006,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5985,19 +6032,19 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6046,7 +6093,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6055,22 +6102,22 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6078,10 +6125,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6104,17 +6151,19 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6163,7 +6212,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6172,22 +6221,22 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6195,10 +6244,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6224,14 +6273,14 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6256,13 +6305,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6280,7 +6329,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6295,16 +6344,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6312,10 +6361,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6338,17 +6387,19 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6397,7 +6448,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6406,22 +6457,22 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6429,10 +6480,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6455,15 +6506,17 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6512,7 +6565,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6521,22 +6574,22 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6544,10 +6597,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6570,19 +6623,19 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6631,7 +6684,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6640,16 +6693,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6663,10 +6716,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6689,13 +6742,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6746,7 +6799,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6761,7 +6814,7 @@
         <v>19</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>19</v>
@@ -6778,10 +6831,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6810,7 +6863,7 @@
         <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>136</v>
@@ -6851,19 +6904,19 @@
         <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6875,10 +6928,10 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>19</v>
@@ -6895,14 +6948,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6924,16 +6977,16 @@
         <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>136</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6982,7 +7035,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6994,7 +7047,7 @@
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>130</v>
@@ -7014,10 +7067,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7040,19 +7093,19 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7101,7 +7154,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7110,22 +7163,22 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7133,10 +7186,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7159,19 +7212,19 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7220,7 +7273,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7235,16 +7288,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>19</v>
@@ -7252,14 +7305,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7278,16 +7331,16 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7337,7 +7390,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7346,22 +7399,22 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
@@ -7369,10 +7422,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7395,19 +7448,19 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7456,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7465,16 +7518,16 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
@@ -7488,10 +7541,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7514,19 +7567,19 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7575,7 +7628,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7584,16 +7637,16 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
@@ -7607,10 +7660,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7633,13 +7686,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7690,7 +7743,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7705,7 +7758,7 @@
         <v>19</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>19</v>
@@ -7722,10 +7775,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7754,7 +7807,7 @@
         <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>136</v>
@@ -7795,19 +7848,19 @@
         <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7819,10 +7872,10 @@
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>19</v>
@@ -7839,14 +7892,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7868,16 +7921,16 @@
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>136</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7926,7 +7979,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7938,7 +7991,7 @@
         <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>130</v>
@@ -7958,10 +8011,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7984,16 +8037,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8043,7 +8096,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8052,22 +8105,22 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -8075,10 +8128,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8104,10 +8157,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8134,13 +8187,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8158,7 +8211,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>87</v>
@@ -8173,10 +8226,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>19</v>
